--- a/assets/db/products_mdgt.xlsx
+++ b/assets/db/products_mdgt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismartinez/Sites/mdgt_finalsite/assets/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ismartinez/Sites/mdgt_finalsite/assets/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540945D2-D5B2-8A46-9506-0B008809DCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69763246-CCE8-1F41-8FF7-BED872006D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="38160" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,51 +22,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="424">
   <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>meta_description</t>
-  </si>
-  <si>
-    <t>page_title</t>
-  </si>
-  <si>
-    <t>product_tittle</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
     <t>subcategory</t>
   </si>
   <si>
-    <t>image_path1</t>
-  </si>
-  <si>
-    <t>product_sectionalt</t>
-  </si>
-  <si>
-    <t>body_description</t>
-  </si>
-  <si>
-    <t>product_uses</t>
-  </si>
-  <si>
-    <t>related_products</t>
-  </si>
-  <si>
     <t>Vinyl Banners</t>
   </si>
   <si>
@@ -506,18 +467,6 @@
   </si>
   <si>
     <t>socialmedia</t>
-  </si>
-  <si>
-    <t>Printing /</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printing  / </t>
-  </si>
-  <si>
-    <t>Custom Apparel /</t>
-  </si>
-  <si>
-    <t>Digital Service /</t>
   </si>
   <si>
     <t>Large Format Printing</t>
@@ -1366,6 +1315,57 @@
   </si>
   <si>
     <t>img2</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>metad</t>
+  </si>
+  <si>
+    <t>productt</t>
+  </si>
+  <si>
+    <t>img1</t>
+  </si>
+  <si>
+    <t>secalt</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>uses</t>
+  </si>
+  <si>
+    <t>related</t>
+  </si>
+  <si>
+    <t>Printing </t>
+  </si>
+  <si>
+    <t>Printing   </t>
+  </si>
+  <si>
+    <t>Custom Apparel </t>
+  </si>
+  <si>
+    <t>Digital Service </t>
+  </si>
+  <si>
+    <t>page_title</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1384,6 +1384,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF454749"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1426,7 +1444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1434,8 +1452,20 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1743,3247 +1773,3247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20" style="3" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="62.83203125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="185.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="44.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="62.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="185.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="59.5" style="3" customWidth="1"/>
-    <col min="17" max="17" width="55.6640625" style="3" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="3"/>
+    <col min="16" max="16" width="59.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="55.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="K1" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1">
         <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>50</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>309</v>
+        <v>419</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>345</v>
+        <v>368</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1">
         <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>80</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>45</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>85</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="2">
         <v>50</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>284</v>
+        <v>419</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>346</v>
+        <v>369</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="2">
         <v>75</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="2">
         <v>150</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="2">
         <v>150</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>17</v>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>301</v>
+        <v>419</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>347</v>
+        <v>370</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="2">
         <v>230</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="2">
         <v>150</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>18</v>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>304</v>
+        <v>419</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>348</v>
+        <v>371</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" s="2">
         <v>180</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1">
         <v>1</v>
       </c>
       <c r="D13" s="2">
         <v>260</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>18</v>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>19</v>
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>310</v>
+        <v>419</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>349</v>
+        <v>372</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>20</v>
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>294</v>
+        <v>419</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>350</v>
+        <v>373</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="2">
         <v>45</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>21</v>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>282</v>
+        <v>419</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>351</v>
+        <v>374</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="2">
         <v>80</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>21</v>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="2">
         <v>120</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>21</v>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1">
         <v>2</v>
       </c>
       <c r="D19" s="2">
         <v>160</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>21</v>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>381</v>
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>352</v>
+        <v>375</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>382</v>
+      <c r="A21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>353</v>
+        <v>376</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="A22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1">
         <v>1000</v>
       </c>
       <c r="D22" s="2">
         <v>80</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>83</v>
+      <c r="E22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>280</v>
+        <v>419</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>354</v>
+        <v>377</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="1">
         <v>2500</v>
       </c>
       <c r="D23" s="2">
         <v>100</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>83</v>
+      <c r="E23" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1">
         <v>5000</v>
       </c>
       <c r="D24" s="2">
         <v>125</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>83</v>
+      <c r="E24" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1">
         <v>250</v>
       </c>
       <c r="D25" s="2">
         <v>100</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>25</v>
+      <c r="E25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>298</v>
+        <v>419</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>355</v>
+        <v>378</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1">
         <v>500</v>
       </c>
       <c r="D26" s="2">
         <v>140</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>25</v>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="1">
         <v>1000</v>
       </c>
       <c r="D27" s="2">
         <v>150</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>25</v>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1">
         <v>2500</v>
       </c>
       <c r="D28" s="2">
         <v>240</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>25</v>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1">
         <v>500</v>
       </c>
       <c r="D29" s="2">
         <v>200</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>25</v>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1">
         <v>1000</v>
       </c>
       <c r="D30" s="2">
         <v>230</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>25</v>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="1">
         <v>2500</v>
       </c>
       <c r="D31" s="2">
         <v>360</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>25</v>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="A32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1">
         <v>250</v>
       </c>
       <c r="D32" s="2">
         <v>260</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>84</v>
+      <c r="E32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>291</v>
+        <v>419</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>356</v>
+        <v>379</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1">
         <v>500</v>
       </c>
       <c r="D33" s="2">
         <v>280</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>84</v>
+      <c r="E33" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="1">
         <v>1000</v>
       </c>
       <c r="D34" s="2">
         <v>325</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>84</v>
+      <c r="E34" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="1">
         <v>2500</v>
       </c>
       <c r="D35" s="2">
         <v>450</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>84</v>
+      <c r="E35" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="1">
         <v>25</v>
       </c>
       <c r="D36" s="2">
         <v>60</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>27</v>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>279</v>
+        <v>419</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>357</v>
+        <v>380</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="A37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="1">
         <v>50</v>
       </c>
       <c r="D37" s="2">
         <v>75</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>27</v>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="1">
         <v>100</v>
       </c>
       <c r="D38" s="2">
         <v>90</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>27</v>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="A39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="1">
         <v>250</v>
       </c>
       <c r="D39" s="2">
         <v>160</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>27</v>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>28</v>
+      <c r="A40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J40" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>281</v>
+      <c r="L40" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>358</v>
+        <v>381</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="A41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="1">
         <v>250</v>
       </c>
       <c r="D41" s="2">
         <v>120</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>29</v>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>286</v>
+        <v>419</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>359</v>
+        <v>382</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="A42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="1">
         <v>500</v>
       </c>
       <c r="D42" s="2">
         <v>150</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>29</v>
+      <c r="E42" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="A43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1">
         <v>1000</v>
       </c>
       <c r="D43" s="2">
         <v>175</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>29</v>
+      <c r="E43" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="1">
         <v>250</v>
       </c>
       <c r="D44" s="2">
         <v>200</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>29</v>
+      <c r="E44" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="3">
+      <c r="A45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="1">
         <v>500</v>
       </c>
       <c r="D45" s="2">
         <v>220</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>29</v>
+      <c r="E45" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="A46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="1">
         <v>1000</v>
       </c>
       <c r="D46" s="2">
         <v>240</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>29</v>
+      <c r="E46" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="3">
+      <c r="A47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="1">
         <v>250</v>
       </c>
       <c r="D47" s="2">
         <v>213.37</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>30</v>
+      <c r="E47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>289</v>
+        <v>419</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>360</v>
+        <v>383</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="3">
+      <c r="A48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="1">
         <v>500</v>
       </c>
       <c r="D48" s="2">
         <v>233.85</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>30</v>
+      <c r="E48" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="3">
+      <c r="A49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="1">
         <v>1000</v>
       </c>
       <c r="D49" s="2">
         <v>272.26</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>30</v>
+      <c r="E49" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="3">
+      <c r="A50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="1">
         <v>2500</v>
       </c>
       <c r="D50" s="2">
         <v>446.33</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>30</v>
+      <c r="E50" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="3">
+      <c r="A51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="1">
         <v>250</v>
       </c>
       <c r="D51" s="2">
         <v>284.08</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>30</v>
+      <c r="E51" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="3">
+      <c r="A52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="1">
         <v>500</v>
       </c>
       <c r="D52" s="2">
         <v>319.89</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>30</v>
+      <c r="E52" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="3">
+      <c r="A53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="1">
         <v>1000</v>
       </c>
       <c r="D53" s="2">
         <v>379.35</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>30</v>
+      <c r="E53" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="3">
+      <c r="A54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="1">
         <v>2500</v>
       </c>
       <c r="D54" s="2">
         <v>608</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>30</v>
+      <c r="E54" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="3">
+      <c r="A55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1">
         <v>250</v>
       </c>
       <c r="D55" s="2">
         <v>73.040000000000006</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>31</v>
+      <c r="E55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>292</v>
+        <v>419</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q55" s="3" t="s">
-        <v>361</v>
+        <v>384</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="3">
+      <c r="A56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="1">
         <v>500</v>
       </c>
       <c r="D56" s="2">
         <v>76.239999999999995</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>31</v>
+      <c r="E56" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="3">
+      <c r="A57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1">
         <v>1000</v>
       </c>
       <c r="D57" s="2">
         <v>92.1</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>31</v>
+      <c r="E57" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="A58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="1">
         <v>2500</v>
       </c>
       <c r="D58" s="2">
         <v>187.36</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>31</v>
+      <c r="E58" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="3">
+      <c r="A59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1">
         <v>250</v>
       </c>
       <c r="D59" s="2">
         <v>250</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>32</v>
+      <c r="E59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>295</v>
+        <v>419</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>362</v>
+        <v>385</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="3">
+      <c r="A60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="1">
         <v>500</v>
       </c>
       <c r="D60" s="2">
         <v>300</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>32</v>
+      <c r="E60" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="3">
+      <c r="A61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="1">
         <v>1000</v>
       </c>
       <c r="D61" s="2">
         <v>375</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>32</v>
+      <c r="E61" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="3">
+      <c r="A62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="1">
         <v>250</v>
       </c>
       <c r="D62" s="2">
         <v>260</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>33</v>
+      <c r="E62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>296</v>
+        <v>419</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>363</v>
+        <v>386</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="3">
+      <c r="A63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="1">
         <v>500</v>
       </c>
       <c r="D63" s="2">
         <v>280</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>33</v>
+      <c r="E63" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="3">
+      <c r="A64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="1">
         <v>1000</v>
       </c>
       <c r="D64" s="2">
         <v>325</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>33</v>
+      <c r="E64" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="3">
+      <c r="A65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="1">
         <v>2500</v>
       </c>
       <c r="D65" s="2">
         <v>450</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>33</v>
+      <c r="E65" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>81</v>
+      <c r="A66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D66" s="2">
         <v>80</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>34</v>
+      <c r="E66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>383</v>
+        <v>419</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>364</v>
+        <v>387</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>82</v>
+      <c r="A67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D67" s="2">
         <v>150</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>34</v>
+      <c r="E67" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68" s="3">
+      <c r="A68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="1">
         <v>1000</v>
       </c>
       <c r="D68" s="2">
         <v>192.93</v>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>35</v>
+      <c r="E68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>384</v>
+        <v>420</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q68" s="3" t="s">
-        <v>355</v>
+        <v>388</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="3">
+      <c r="A69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="1">
         <v>2500</v>
       </c>
       <c r="D69" s="2">
         <v>282.97000000000003</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>35</v>
+      <c r="E69" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C70" s="3">
+      <c r="A70" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C70" s="1">
         <v>5000</v>
       </c>
       <c r="D70" s="2">
         <v>443.72</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>35</v>
+      <c r="E70" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="3">
+      <c r="A71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="1">
         <v>1000</v>
       </c>
       <c r="D71" s="2">
         <v>222.83</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>35</v>
+      <c r="E71" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="3">
+      <c r="A72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="1">
         <v>2500</v>
       </c>
       <c r="D72" s="2">
         <v>326.81</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>35</v>
+      <c r="E72" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="3">
+      <c r="A73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="1">
         <v>5000</v>
       </c>
       <c r="D73" s="2">
         <v>512.5</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>35</v>
+      <c r="E73" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" s="3">
+      <c r="A74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="1">
         <v>1000</v>
       </c>
       <c r="D74" s="2">
         <v>173.61</v>
       </c>
-      <c r="E74" s="3" t="s">
-        <v>35</v>
+      <c r="E74" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75" s="3">
+      <c r="A75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="1">
         <v>2500</v>
       </c>
       <c r="D75" s="2">
         <v>259.39</v>
       </c>
-      <c r="E75" s="3" t="s">
-        <v>35</v>
+      <c r="E75" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C76" s="3">
+      <c r="A76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="1">
         <v>5000</v>
       </c>
       <c r="D76" s="2">
         <v>413.72</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>35</v>
+      <c r="E76" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C77" s="3">
+      <c r="A77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" s="1">
         <v>100</v>
       </c>
       <c r="D77" s="2">
         <v>70</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>36</v>
+      <c r="E77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>290</v>
+        <v>419</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="P77" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q77" s="3" t="s">
-        <v>365</v>
+        <v>389</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" s="3">
+      <c r="A78" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="1">
         <v>250</v>
       </c>
       <c r="D78" s="2">
         <v>85</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>36</v>
+      <c r="E78" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C79" s="3">
+      <c r="A79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="1">
         <v>500</v>
       </c>
       <c r="D79" s="2">
         <v>100</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>36</v>
+      <c r="E79" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="3">
+      <c r="A80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="1">
         <v>100</v>
       </c>
       <c r="D80" s="2">
         <v>85</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>36</v>
+      <c r="E80" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C81" s="3">
+      <c r="A81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="1">
         <v>250</v>
       </c>
       <c r="D81" s="2">
         <v>95</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>36</v>
+      <c r="E81" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C82" s="3">
+      <c r="A82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="1">
         <v>500</v>
       </c>
       <c r="D82" s="2">
         <v>110</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>36</v>
+      <c r="E82" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>37</v>
+      <c r="A83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>299</v>
+        <v>419</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>366</v>
+        <v>390</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C84" s="3">
+      <c r="A84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" s="1">
         <v>1000</v>
       </c>
       <c r="D84" s="2">
         <v>250.08</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>38</v>
+      <c r="E84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>306</v>
+        <v>419</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="P84" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q84" s="3" t="s">
-        <v>367</v>
+        <v>391</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C85" s="3">
+      <c r="A85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="1">
         <v>2500</v>
       </c>
       <c r="D85" s="2">
         <v>354.89</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>38</v>
+      <c r="E85" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="3">
+      <c r="A86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="1">
         <v>5000</v>
       </c>
       <c r="D86" s="2">
         <v>447.78</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>38</v>
+      <c r="E86" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C87" s="3">
+      <c r="A87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" s="1">
         <v>10000</v>
       </c>
       <c r="D87" s="2">
         <v>857.44</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>38</v>
+      <c r="E87" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="3">
+      <c r="A88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="1">
         <v>1000</v>
       </c>
       <c r="D88" s="2">
         <v>204.83</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>38</v>
+      <c r="E88" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C89" s="3">
+      <c r="A89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="1">
         <v>2500</v>
       </c>
       <c r="D89" s="2">
         <v>269.14999999999998</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>38</v>
+      <c r="E89" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C90" s="3">
+      <c r="A90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" s="1">
         <v>5000</v>
       </c>
       <c r="D90" s="2">
         <v>340.59</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>38</v>
+      <c r="E90" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C91" s="3">
+      <c r="A91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="1">
         <v>10000</v>
       </c>
       <c r="D91" s="2">
         <v>612.14</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>38</v>
+      <c r="E91" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C92" s="3">
+      <c r="A92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="1">
         <v>1000</v>
       </c>
       <c r="D92" s="2">
         <v>66.69</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>38</v>
+      <c r="E92" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" s="3">
+      <c r="A93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="1">
         <v>2500</v>
       </c>
       <c r="D93" s="2">
         <v>114.32</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>38</v>
+      <c r="E93" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C94" s="3">
+      <c r="A94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="1">
         <v>5000</v>
       </c>
       <c r="D94" s="2">
         <v>185.79</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>38</v>
+      <c r="E94" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C95" s="3">
+      <c r="A95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="1">
         <v>10000</v>
       </c>
       <c r="D95" s="2">
         <v>385.86</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>38</v>
+      <c r="E95" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>39</v>
+      <c r="A96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="M96" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N96" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="N96" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="O96" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="P96" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q96" s="3" t="s">
-        <v>368</v>
+        <v>392</v>
+      </c>
+      <c r="P96" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C97" s="3">
+      <c r="A97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" s="1">
         <v>1000</v>
       </c>
       <c r="D97" s="2">
         <v>492.03</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>40</v>
+      <c r="E97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>302</v>
+        <v>419</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="P97" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q97" s="3" t="s">
-        <v>369</v>
+        <v>393</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C98" s="3">
+      <c r="A98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" s="1">
         <v>2500</v>
       </c>
       <c r="D98" s="2">
         <v>741.69</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>40</v>
+      <c r="E98" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C99" s="3">
+      <c r="A99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" s="1">
         <v>5000</v>
       </c>
       <c r="D99" s="2">
         <v>964.63</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>40</v>
+      <c r="E99" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C100" s="3">
+      <c r="A100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100" s="1">
         <v>10000</v>
       </c>
       <c r="D100" s="2">
         <v>1445.96</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>40</v>
+      <c r="E100" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C101" s="3">
+      <c r="A101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="1">
         <v>1000</v>
       </c>
       <c r="D101" s="2">
         <v>435.16</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>40</v>
+      <c r="E101" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C102" s="3">
+      <c r="A102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="1">
         <v>2500</v>
       </c>
       <c r="D102" s="2">
         <v>578.77</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>40</v>
+      <c r="E102" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C103" s="3">
+      <c r="A103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="1">
         <v>5000</v>
       </c>
       <c r="D103" s="2">
         <v>752.23</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>40</v>
+      <c r="E103" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C104" s="3">
+      <c r="A104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="1">
         <v>10000</v>
       </c>
       <c r="D104" s="2">
         <v>1128.33</v>
       </c>
-      <c r="E104" s="3" t="s">
-        <v>40</v>
+      <c r="E104" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C105" s="3">
+      <c r="A105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C105" s="1">
         <v>1000</v>
       </c>
       <c r="D105" s="2">
         <v>366.57</v>
       </c>
-      <c r="E105" s="3" t="s">
-        <v>40</v>
+      <c r="E105" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C106" s="3">
+      <c r="A106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" s="1">
         <v>2500</v>
       </c>
       <c r="D106" s="2">
         <v>398.71</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>40</v>
+      <c r="E106" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C107" s="3">
+      <c r="A107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" s="1">
         <v>5000</v>
       </c>
       <c r="D107" s="2">
         <v>479.4</v>
       </c>
-      <c r="E107" s="3" t="s">
-        <v>40</v>
+      <c r="E107" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C108" s="3">
+      <c r="A108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" s="1">
         <v>10000</v>
       </c>
       <c r="D108" s="2">
         <v>641.14</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>40</v>
+      <c r="E108" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>41</v>
+      <c r="A109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M109" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N112" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="N109" s="3" t="s">
+      <c r="O112" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N119" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="O109" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="P109" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q109" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="M110" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="N110" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="P110" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q110" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="L111" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="M111" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="N111" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="P111" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q111" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="M112" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="N112" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="P112" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q112" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="N113" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="P113" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q113" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="M114" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="N114" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="P114" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q114" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="L115" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M115" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="N115" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="P115" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q115" s="3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="L116" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="M116" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="N116" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O116" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="P116" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q116" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="M117" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="N117" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="P117" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q117" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L118" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="M118" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="N118" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="P118" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q118" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K119" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="L119" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M119" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="N119" s="3" t="s">
-        <v>305</v>
-      </c>
       <c r="O119" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="P119" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q119" s="3" t="s">
-        <v>380</v>
+        <v>404</v>
+      </c>
+      <c r="P119" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/assets/db/products_mdgt.xlsx
+++ b/assets/db/products_mdgt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismartinez/Sites/mdgt_finalsite/assets/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismartinez/Sites/mdgt_finalsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B25F4052-BC77-BB47-B552-9A26CBF07FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048DD433-8132-4347-BBAF-6BD87B2B39D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1433,14 +1433,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
